--- a/sample_data/sample_economy.xlsx
+++ b/sample_data/sample_economy.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tansansu/Google Drive/Python/latent_info/sample_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="to" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="1872">
   <si>
     <t>site</t>
   </si>
@@ -5627,17 +5640,21 @@
   </si>
   <si>
     <t>2016-09-30 23:51:03</t>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5645,7 +5662,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5653,9 +5670,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5693,23 +5722,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5751,12 +5788,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -5783,14 +5820,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -5817,6 +5855,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5992,14 +6031,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E627"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F627"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="F628" sqref="F628"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="103.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6012,8 +6056,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6030,7 +6077,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6047,7 +6094,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6064,7 +6111,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6081,7 +6128,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6098,7 +6145,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6115,7 +6162,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6132,7 +6179,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6149,7 +6196,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6166,7 +6213,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6182,8 +6229,11 @@
       <c r="E11" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6200,7 +6250,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6217,7 +6267,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6234,7 +6284,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6250,8 +6300,11 @@
       <c r="E15" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6268,7 +6321,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6284,8 +6337,11 @@
       <c r="E17" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6301,8 +6357,11 @@
       <c r="E18" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6319,7 +6378,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6336,7 +6395,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6352,8 +6411,11 @@
       <c r="E21" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6370,7 +6432,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6386,8 +6448,11 @@
       <c r="E23" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6404,7 +6469,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6421,7 +6486,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6438,7 +6503,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6455,7 +6520,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6472,7 +6537,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6489,7 +6554,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6506,7 +6571,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6523,7 +6588,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6540,7 +6605,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -6557,7 +6622,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -6574,7 +6639,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6591,7 +6656,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6608,7 +6673,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6624,8 +6689,11 @@
       <c r="E37" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6641,8 +6709,11 @@
       <c r="E38" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6658,8 +6729,11 @@
       <c r="E39" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6676,7 +6750,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6692,8 +6766,11 @@
       <c r="E41" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6710,7 +6787,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6727,7 +6804,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6744,7 +6821,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6761,7 +6838,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6778,7 +6855,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6795,7 +6872,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6811,8 +6888,11 @@
       <c r="E48" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6828,8 +6908,11 @@
       <c r="E49" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6846,7 +6929,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6863,7 +6946,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6879,8 +6962,11 @@
       <c r="E52" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6897,7 +6983,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6914,7 +7000,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6930,8 +7016,11 @@
       <c r="E55" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6947,8 +7036,11 @@
       <c r="E56" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6964,8 +7056,11 @@
       <c r="E57" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6982,7 +7077,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6999,7 +7094,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7015,8 +7110,11 @@
       <c r="E60" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7033,7 +7131,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7049,8 +7147,11 @@
       <c r="E62" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7067,7 +7168,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7083,8 +7184,11 @@
       <c r="E64" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7100,8 +7204,11 @@
       <c r="E65" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7118,7 +7225,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7134,8 +7241,11 @@
       <c r="E67" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7151,8 +7261,11 @@
       <c r="E68" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7168,8 +7281,11 @@
       <c r="E69" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7185,8 +7301,11 @@
       <c r="E70" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7203,7 +7322,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7220,7 +7339,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7237,7 +7356,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7254,7 +7373,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7271,7 +7390,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7288,7 +7407,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7305,7 +7424,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7322,7 +7441,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7338,8 +7457,11 @@
       <c r="E79" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7356,7 +7478,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7373,7 +7495,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7390,7 +7512,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7407,7 +7529,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7424,7 +7546,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7441,7 +7563,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7458,7 +7580,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7475,7 +7597,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7492,7 +7614,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7509,7 +7631,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7526,7 +7648,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7542,8 +7664,11 @@
       <c r="E91" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -7559,8 +7684,11 @@
       <c r="E92" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -7576,8 +7704,11 @@
       <c r="E93" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -7593,8 +7724,11 @@
       <c r="E94" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -7611,7 +7745,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7628,7 +7762,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7645,7 +7779,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7662,7 +7796,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7679,7 +7813,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7696,7 +7830,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7713,7 +7847,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7730,7 +7864,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7747,7 +7881,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7764,7 +7898,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7781,7 +7915,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7798,7 +7932,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7815,7 +7949,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7832,7 +7966,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7848,8 +7982,11 @@
       <c r="E109" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7865,8 +8002,11 @@
       <c r="E110" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7883,7 +8023,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7900,7 +8040,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7917,7 +8057,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7934,7 +8074,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7951,7 +8091,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7968,7 +8108,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7985,7 +8125,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -8002,7 +8142,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8019,7 +8159,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8036,7 +8176,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8053,7 +8193,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8069,8 +8209,11 @@
       <c r="E122" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8087,7 +8230,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8103,8 +8246,11 @@
       <c r="E124" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8120,8 +8266,11 @@
       <c r="E125" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -8138,7 +8287,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -8154,8 +8303,11 @@
       <c r="E127" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8171,8 +8323,11 @@
       <c r="E128" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -8189,7 +8344,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8206,7 +8361,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8223,7 +8378,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8240,7 +8395,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8257,7 +8412,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8273,8 +8428,11 @@
       <c r="E134" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8291,7 +8449,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8307,8 +8465,11 @@
       <c r="E136" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8324,8 +8485,11 @@
       <c r="E137" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8341,8 +8505,11 @@
       <c r="E138" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8359,7 +8526,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8376,7 +8543,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -8393,7 +8560,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -8410,7 +8577,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -8427,7 +8594,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -8443,8 +8610,11 @@
       <c r="E144" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -8461,7 +8631,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -8477,8 +8647,11 @@
       <c r="E146" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -8495,7 +8668,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -8512,7 +8685,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -8529,7 +8702,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -8546,7 +8719,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8563,7 +8736,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8579,8 +8752,11 @@
       <c r="E152" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8597,7 +8773,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -8614,7 +8790,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8630,8 +8806,11 @@
       <c r="E155" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8648,7 +8827,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8664,8 +8843,11 @@
       <c r="E157" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8682,7 +8864,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8699,7 +8881,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8716,7 +8898,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -8733,7 +8915,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8750,7 +8932,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8766,8 +8948,11 @@
       <c r="E163" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8784,7 +8969,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8801,7 +8986,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -8818,7 +9003,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8835,7 +9020,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8852,7 +9037,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8869,7 +9054,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8886,7 +9071,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8903,7 +9088,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8920,7 +9105,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8937,7 +9122,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8954,7 +9139,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8971,7 +9156,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8988,7 +9173,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -9005,7 +9190,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -9022,7 +9207,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -9038,8 +9223,11 @@
       <c r="E179" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -9056,7 +9244,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -9073,7 +9261,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -9090,7 +9278,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -9107,7 +9295,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9124,7 +9312,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9141,7 +9329,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -9158,7 +9346,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9175,7 +9363,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9191,8 +9379,11 @@
       <c r="E188" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9208,8 +9399,11 @@
       <c r="E189" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -9226,7 +9420,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9243,7 +9437,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9260,7 +9454,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -9277,7 +9471,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9293,8 +9487,11 @@
       <c r="E194" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9311,7 +9508,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -9327,8 +9524,11 @@
       <c r="E196" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9345,7 +9545,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9362,7 +9562,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9378,8 +9578,11 @@
       <c r="E199" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9395,8 +9598,11 @@
       <c r="E200" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9413,7 +9619,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9430,7 +9636,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9447,7 +9653,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9464,7 +9670,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -9481,7 +9687,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9497,8 +9703,11 @@
       <c r="E206" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9514,8 +9723,11 @@
       <c r="E207" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9531,8 +9743,11 @@
       <c r="E208" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -9549,7 +9764,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9565,8 +9780,11 @@
       <c r="E210" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9583,7 +9801,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9600,7 +9818,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9617,7 +9835,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9634,7 +9852,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9651,7 +9869,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9667,8 +9885,11 @@
       <c r="E216" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9684,8 +9905,11 @@
       <c r="E217" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -9702,7 +9926,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -9718,8 +9942,11 @@
       <c r="E219" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -9735,8 +9962,11 @@
       <c r="E220" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -9753,7 +9983,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -9770,7 +10000,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -9787,7 +10017,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -9803,8 +10033,11 @@
       <c r="E224" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -9821,7 +10054,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -9837,8 +10070,11 @@
       <c r="E226" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -9855,7 +10091,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -9871,8 +10107,11 @@
       <c r="E228" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -9888,8 +10127,11 @@
       <c r="E229" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -9905,8 +10147,11 @@
       <c r="E230" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -9923,7 +10168,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -9940,7 +10185,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -9956,8 +10201,11 @@
       <c r="E233" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -9974,7 +10222,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -9991,7 +10239,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10008,7 +10256,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10025,7 +10273,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10042,7 +10290,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10059,7 +10307,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10076,7 +10324,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10093,7 +10341,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10110,7 +10358,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10127,7 +10375,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10144,7 +10392,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10161,7 +10409,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -10178,7 +10426,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -10195,7 +10443,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -10212,7 +10460,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -10229,7 +10477,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -10245,8 +10493,11 @@
       <c r="E250" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -10263,7 +10514,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -10279,8 +10530,11 @@
       <c r="E252" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -10297,7 +10551,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -10314,7 +10568,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -10331,7 +10585,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -10348,7 +10602,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -10364,8 +10618,11 @@
       <c r="E257" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -10381,8 +10638,11 @@
       <c r="E258" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -10398,8 +10658,11 @@
       <c r="E259" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -10416,7 +10679,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -10433,7 +10696,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -10449,8 +10712,11 @@
       <c r="E262" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -10467,7 +10733,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -10484,7 +10750,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -10500,8 +10766,11 @@
       <c r="E265" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -10517,8 +10786,11 @@
       <c r="E266" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -10534,8 +10806,11 @@
       <c r="E267" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -10552,7 +10827,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -10569,7 +10844,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -10586,7 +10861,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -10603,7 +10878,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -10620,7 +10895,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -10637,7 +10912,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -10654,7 +10929,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -10671,7 +10946,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -10688,7 +10963,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -10705,7 +10980,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -10722,7 +10997,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -10739,7 +11014,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -10755,8 +11030,11 @@
       <c r="E280" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -10772,8 +11050,11 @@
       <c r="E281" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -10789,8 +11070,11 @@
       <c r="E282" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -10807,7 +11091,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -10824,7 +11108,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -10841,7 +11125,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -10857,8 +11141,11 @@
       <c r="E286" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -10874,8 +11161,11 @@
       <c r="E287" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -10891,8 +11181,11 @@
       <c r="E288" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -10909,7 +11202,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -10926,7 +11219,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -10943,7 +11236,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -10959,8 +11252,11 @@
       <c r="E292" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -10976,8 +11272,11 @@
       <c r="E293" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -10994,7 +11293,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -11011,7 +11310,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -11028,7 +11327,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -11045,7 +11344,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -11061,8 +11360,11 @@
       <c r="E298" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -11079,7 +11381,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -11096,7 +11398,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -11113,7 +11415,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -11130,7 +11432,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -11147,7 +11449,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -11164,7 +11466,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -11181,7 +11483,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -11198,7 +11500,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -11215,7 +11517,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -11232,7 +11534,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -11249,7 +11551,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -11266,7 +11568,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -11283,7 +11585,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -11300,7 +11602,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -11317,7 +11619,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -11334,7 +11636,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -11351,7 +11653,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -11368,7 +11670,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -11385,7 +11687,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -11402,7 +11704,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -11419,7 +11721,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -11436,7 +11738,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -11453,7 +11755,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -11470,7 +11772,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -11486,8 +11788,11 @@
       <c r="E323" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="324" spans="1:5">
+      <c r="F323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -11504,7 +11809,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -11521,7 +11826,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -11537,8 +11842,11 @@
       <c r="E326" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="327" spans="1:5">
+      <c r="F326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -11554,8 +11862,11 @@
       <c r="E327" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="328" spans="1:5">
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -11571,8 +11882,11 @@
       <c r="E328" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="329" spans="1:5">
+      <c r="F328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -11589,7 +11903,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -11605,8 +11919,11 @@
       <c r="E330" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="331" spans="1:5">
+      <c r="F330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -11622,8 +11939,11 @@
       <c r="E331" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="332" spans="1:5">
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -11639,8 +11959,11 @@
       <c r="E332" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="333" spans="1:5">
+      <c r="F332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -11656,8 +11979,11 @@
       <c r="E333" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="334" spans="1:5">
+      <c r="F333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -11674,7 +12000,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -11690,8 +12016,11 @@
       <c r="E335" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="336" spans="1:5">
+      <c r="F335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -11708,7 +12037,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -11724,8 +12053,11 @@
       <c r="E337" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="338" spans="1:5">
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -11741,8 +12073,11 @@
       <c r="E338" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -11758,8 +12093,11 @@
       <c r="E339" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="340" spans="1:5">
+      <c r="F339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -11775,8 +12113,11 @@
       <c r="E340" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="341" spans="1:5">
+      <c r="F340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -11792,8 +12133,11 @@
       <c r="E341" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="342" spans="1:5">
+      <c r="F341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -11810,7 +12154,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -11826,8 +12170,11 @@
       <c r="E343" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="344" spans="1:5">
+      <c r="F343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -11844,7 +12191,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -11860,8 +12207,11 @@
       <c r="E345" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="346" spans="1:5">
+      <c r="F345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -11877,8 +12227,11 @@
       <c r="E346" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="347" spans="1:5">
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -11894,8 +12247,11 @@
       <c r="E347" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="348" spans="1:5">
+      <c r="F347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -11912,7 +12268,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -11929,7 +12285,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -11945,8 +12301,11 @@
       <c r="E350" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="351" spans="1:5">
+      <c r="F350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -11962,8 +12321,11 @@
       <c r="E351" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="352" spans="1:5">
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -11979,8 +12341,11 @@
       <c r="E352" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="353" spans="1:5">
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -11996,8 +12361,11 @@
       <c r="E353" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="354" spans="1:5">
+      <c r="F353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -12014,7 +12382,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -12031,7 +12399,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -12048,7 +12416,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -12065,7 +12433,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -12082,7 +12450,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -12099,7 +12467,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -12116,7 +12484,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -12133,7 +12501,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -12150,7 +12518,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -12167,7 +12535,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -12184,7 +12552,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -12200,8 +12568,11 @@
       <c r="E365" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="366" spans="1:5">
+      <c r="F365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -12217,8 +12588,11 @@
       <c r="E366" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="367" spans="1:5">
+      <c r="F366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -12235,7 +12609,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -12252,7 +12626,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -12268,8 +12642,11 @@
       <c r="E369" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="370" spans="1:5">
+      <c r="F369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -12286,7 +12663,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -12303,7 +12680,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -12320,7 +12697,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -12337,7 +12714,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -12354,7 +12731,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -12371,7 +12748,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -12387,8 +12764,11 @@
       <c r="E376" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="377" spans="1:5">
+      <c r="F376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -12405,7 +12785,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -12421,8 +12801,11 @@
       <c r="E378" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="379" spans="1:5">
+      <c r="F378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -12438,8 +12821,11 @@
       <c r="E379" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="380" spans="1:5">
+      <c r="F379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -12455,8 +12841,11 @@
       <c r="E380" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="381" spans="1:5">
+      <c r="F380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -12472,8 +12861,11 @@
       <c r="E381" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="382" spans="1:5">
+      <c r="F381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -12490,7 +12882,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -12506,8 +12898,11 @@
       <c r="E383" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="384" spans="1:5">
+      <c r="F383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -12524,7 +12919,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -12540,8 +12935,11 @@
       <c r="E385" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="386" spans="1:5">
+      <c r="F385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -12557,8 +12955,11 @@
       <c r="E386" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="387" spans="1:5">
+      <c r="F386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -12574,8 +12975,11 @@
       <c r="E387" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="388" spans="1:5">
+      <c r="F387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -12591,8 +12995,11 @@
       <c r="E388" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="389" spans="1:5">
+      <c r="F388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -12609,7 +13016,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -12626,7 +13033,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -12642,8 +13049,11 @@
       <c r="E391" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="392" spans="1:5">
+      <c r="F391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -12660,7 +13070,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -12677,7 +13087,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -12693,8 +13103,11 @@
       <c r="E394" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="395" spans="1:5">
+      <c r="F394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -12710,8 +13123,11 @@
       <c r="E395" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="396" spans="1:5">
+      <c r="F395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -12727,8 +13143,11 @@
       <c r="E396" t="s">
         <v>1640</v>
       </c>
-    </row>
-    <row r="397" spans="1:5">
+      <c r="F396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -12744,8 +13163,11 @@
       <c r="E397" t="s">
         <v>1641</v>
       </c>
-    </row>
-    <row r="398" spans="1:5">
+      <c r="F397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -12761,8 +13183,11 @@
       <c r="E398" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="399" spans="1:5">
+      <c r="F398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -12778,8 +13203,11 @@
       <c r="E399" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="400" spans="1:5">
+      <c r="F399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -12795,8 +13223,11 @@
       <c r="E400" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="401" spans="1:5">
+      <c r="F400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -12813,7 +13244,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -12830,7 +13261,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -12847,7 +13278,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -12864,7 +13295,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -12880,8 +13311,11 @@
       <c r="E405" t="s">
         <v>1649</v>
       </c>
-    </row>
-    <row r="406" spans="1:5">
+      <c r="F405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -12898,7 +13332,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -12915,7 +13349,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -12931,8 +13365,11 @@
       <c r="E408" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="409" spans="1:5">
+      <c r="F408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -12948,8 +13385,11 @@
       <c r="E409" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="410" spans="1:5">
+      <c r="F409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -12966,7 +13406,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -12983,7 +13423,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -13000,7 +13440,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -13016,8 +13456,11 @@
       <c r="E413" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="414" spans="1:5">
+      <c r="F413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -13033,8 +13476,11 @@
       <c r="E414" t="s">
         <v>1658</v>
       </c>
-    </row>
-    <row r="415" spans="1:5">
+      <c r="F414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -13051,7 +13497,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -13068,7 +13514,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -13085,7 +13531,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -13102,7 +13548,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -13119,7 +13565,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -13136,7 +13582,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -13152,8 +13598,11 @@
       <c r="E421" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="422" spans="1:5">
+      <c r="F421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -13169,8 +13618,11 @@
       <c r="E422" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="423" spans="1:5">
+      <c r="F422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -13186,8 +13638,11 @@
       <c r="E423" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="424" spans="1:5">
+      <c r="F423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -13203,8 +13658,11 @@
       <c r="E424" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="425" spans="1:5">
+      <c r="F424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -13220,8 +13678,11 @@
       <c r="E425" t="s">
         <v>1669</v>
       </c>
-    </row>
-    <row r="426" spans="1:5">
+      <c r="F425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -13238,7 +13699,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -13254,8 +13715,11 @@
       <c r="E427" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="428" spans="1:5">
+      <c r="F427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -13271,8 +13735,11 @@
       <c r="E428" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="429" spans="1:5">
+      <c r="F428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -13288,8 +13755,11 @@
       <c r="E429" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="430" spans="1:5">
+      <c r="F429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -13305,8 +13775,11 @@
       <c r="E430" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="431" spans="1:5">
+      <c r="F430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -13323,7 +13796,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -13339,8 +13812,11 @@
       <c r="E432" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="433" spans="1:5">
+      <c r="F432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -13357,7 +13833,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -13373,8 +13849,11 @@
       <c r="E434" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="435" spans="1:5">
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -13391,7 +13870,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -13408,7 +13887,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -13424,8 +13903,11 @@
       <c r="E437" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="438" spans="1:5">
+      <c r="F437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -13442,7 +13924,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -13459,7 +13941,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -13475,8 +13957,11 @@
       <c r="E440" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="441" spans="1:5">
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -13493,7 +13978,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -13510,7 +13995,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -13526,8 +14011,11 @@
       <c r="E443" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="444" spans="1:5">
+      <c r="F443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -13543,8 +14031,11 @@
       <c r="E444" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="445" spans="1:5">
+      <c r="F444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -13560,8 +14051,11 @@
       <c r="E445" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="446" spans="1:5">
+      <c r="F445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -13578,7 +14072,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -13594,8 +14088,11 @@
       <c r="E447" t="s">
         <v>1691</v>
       </c>
-    </row>
-    <row r="448" spans="1:5">
+      <c r="F447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -13612,7 +14109,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -13628,8 +14125,11 @@
       <c r="E449" t="s">
         <v>1693</v>
       </c>
-    </row>
-    <row r="450" spans="1:5">
+      <c r="F449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -13645,8 +14145,11 @@
       <c r="E450" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="451" spans="1:5">
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -13662,8 +14165,11 @@
       <c r="E451" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="452" spans="1:5">
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -13680,7 +14186,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -13696,8 +14202,11 @@
       <c r="E453" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="454" spans="1:5">
+      <c r="F453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -13713,8 +14222,11 @@
       <c r="E454" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="455" spans="1:5">
+      <c r="F454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -13730,8 +14242,11 @@
       <c r="E455" t="s">
         <v>1699</v>
       </c>
-    </row>
-    <row r="456" spans="1:5">
+      <c r="F455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -13747,8 +14262,11 @@
       <c r="E456" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="457" spans="1:5">
+      <c r="F456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -13764,8 +14282,11 @@
       <c r="E457" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="458" spans="1:5">
+      <c r="F457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -13782,7 +14303,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -13798,8 +14319,11 @@
       <c r="E459" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="460" spans="1:5">
+      <c r="F459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -13816,7 +14340,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -13832,8 +14356,11 @@
       <c r="E461" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="462" spans="1:5">
+      <c r="F461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -13849,8 +14376,11 @@
       <c r="E462" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="463" spans="1:5">
+      <c r="F462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -13867,7 +14397,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -13884,7 +14414,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -13900,8 +14430,11 @@
       <c r="E465" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="466" spans="1:5">
+      <c r="F465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -13917,8 +14450,11 @@
       <c r="E466" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="467" spans="1:5">
+      <c r="F466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -13934,8 +14470,11 @@
       <c r="E467" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="468" spans="1:5">
+      <c r="F467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -13951,8 +14490,11 @@
       <c r="E468" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="469" spans="1:5">
+      <c r="F468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -13969,7 +14511,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -13986,7 +14528,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -14002,8 +14544,11 @@
       <c r="E471" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="472" spans="1:5">
+      <c r="F471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -14019,8 +14564,11 @@
       <c r="E472" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="473" spans="1:5">
+      <c r="F472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -14037,7 +14585,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -14053,8 +14601,11 @@
       <c r="E474" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="475" spans="1:5">
+      <c r="F474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -14070,8 +14621,11 @@
       <c r="E475" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="476" spans="1:5">
+      <c r="F475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -14087,8 +14641,11 @@
       <c r="E476" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="477" spans="1:5">
+      <c r="F476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -14104,8 +14661,11 @@
       <c r="E477" t="s">
         <v>1721</v>
       </c>
-    </row>
-    <row r="478" spans="1:5">
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -14121,8 +14681,11 @@
       <c r="E478" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="479" spans="1:5">
+      <c r="F478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -14138,8 +14701,11 @@
       <c r="E479" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="480" spans="1:5">
+      <c r="F479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -14155,8 +14721,11 @@
       <c r="E480" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="481" spans="1:5">
+      <c r="F480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -14172,8 +14741,11 @@
       <c r="E481" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="482" spans="1:5">
+      <c r="F481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -14189,8 +14761,11 @@
       <c r="E482" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="483" spans="1:5">
+      <c r="F482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -14206,8 +14781,11 @@
       <c r="E483" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="484" spans="1:5">
+      <c r="F483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -14224,7 +14802,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -14241,7 +14819,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -14258,7 +14836,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -14275,7 +14853,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -14291,8 +14869,11 @@
       <c r="E488" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="489" spans="1:5">
+      <c r="F488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -14308,8 +14889,11 @@
       <c r="E489" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="490" spans="1:5">
+      <c r="F489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -14325,8 +14909,11 @@
       <c r="E490" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="491" spans="1:5">
+      <c r="F490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -14343,7 +14930,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -14360,7 +14947,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -14377,7 +14964,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -14393,8 +14980,11 @@
       <c r="E494" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="495" spans="1:5">
+      <c r="F494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -14410,8 +15000,11 @@
       <c r="E495" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="496" spans="1:5">
+      <c r="F495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -14428,7 +15021,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -14444,8 +15037,11 @@
       <c r="E497" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="498" spans="1:5">
+      <c r="F497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -14461,8 +15057,11 @@
       <c r="E498" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="499" spans="1:5">
+      <c r="F498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -14478,8 +15077,11 @@
       <c r="E499" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="500" spans="1:5">
+      <c r="F499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -14496,7 +15098,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -14513,7 +15115,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -14530,7 +15132,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -14547,7 +15149,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -14563,8 +15165,11 @@
       <c r="E504" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="505" spans="1:5">
+      <c r="F504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -14580,8 +15185,11 @@
       <c r="E505" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="506" spans="1:5">
+      <c r="F505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -14598,7 +15206,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -14614,8 +15222,11 @@
       <c r="E507" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="508" spans="1:5">
+      <c r="F507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -14632,7 +15243,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -14648,8 +15259,11 @@
       <c r="E509" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="510" spans="1:5">
+      <c r="F509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -14665,8 +15279,11 @@
       <c r="E510" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="511" spans="1:5">
+      <c r="F510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -14682,8 +15299,11 @@
       <c r="E511" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="512" spans="1:5">
+      <c r="F511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -14699,8 +15319,11 @@
       <c r="E512" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="513" spans="1:5">
+      <c r="F512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -14717,7 +15340,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -14734,7 +15357,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -14751,7 +15374,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -14768,7 +15391,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -14785,7 +15408,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -14801,8 +15424,11 @@
       <c r="E518" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="519" spans="1:5">
+      <c r="F518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -14819,7 +15445,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -14836,7 +15462,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -14852,8 +15478,11 @@
       <c r="E521" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="522" spans="1:5">
+      <c r="F521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -14870,7 +15499,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -14887,7 +15516,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -14903,8 +15532,11 @@
       <c r="E524" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="525" spans="1:5">
+      <c r="F524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -14920,8 +15552,11 @@
       <c r="E525" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="526" spans="1:5">
+      <c r="F525">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -14938,7 +15573,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -14955,7 +15590,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -14972,7 +15607,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -14989,7 +15624,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -15006,7 +15641,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -15023,7 +15658,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -15040,7 +15675,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -15057,7 +15692,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -15073,8 +15708,11 @@
       <c r="E534" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="535" spans="1:5">
+      <c r="F534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -15090,8 +15728,11 @@
       <c r="E535" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="536" spans="1:5">
+      <c r="F535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -15108,7 +15749,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -15125,7 +15766,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -15142,7 +15783,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -15158,8 +15799,11 @@
       <c r="E539" t="s">
         <v>1783</v>
       </c>
-    </row>
-    <row r="540" spans="1:5">
+      <c r="F539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -15176,7 +15820,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -15192,8 +15836,11 @@
       <c r="E541" t="s">
         <v>1785</v>
       </c>
-    </row>
-    <row r="542" spans="1:5">
+      <c r="F541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -15209,8 +15856,11 @@
       <c r="E542" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="543" spans="1:5">
+      <c r="F542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -15226,8 +15876,11 @@
       <c r="E543" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="544" spans="1:5">
+      <c r="F543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -15243,8 +15896,11 @@
       <c r="E544" t="s">
         <v>1787</v>
       </c>
-    </row>
-    <row r="545" spans="1:5">
+      <c r="F544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -15261,7 +15917,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -15277,8 +15933,11 @@
       <c r="E546" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="547" spans="1:5">
+      <c r="F546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -15294,8 +15953,11 @@
       <c r="E547" t="s">
         <v>1790</v>
       </c>
-    </row>
-    <row r="548" spans="1:5">
+      <c r="F547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -15311,8 +15973,11 @@
       <c r="E548" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="549" spans="1:5">
+      <c r="F548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -15329,7 +15994,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -15345,8 +16010,11 @@
       <c r="E550" t="s">
         <v>1793</v>
       </c>
-    </row>
-    <row r="551" spans="1:5">
+      <c r="F550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -15363,7 +16031,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -15379,8 +16047,11 @@
       <c r="E552" t="s">
         <v>1795</v>
       </c>
-    </row>
-    <row r="553" spans="1:5">
+      <c r="F552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -15397,7 +16068,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -15414,7 +16085,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -15431,7 +16102,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -15447,8 +16118,11 @@
       <c r="E556" t="s">
         <v>1799</v>
       </c>
-    </row>
-    <row r="557" spans="1:5">
+      <c r="F556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -15464,8 +16138,11 @@
       <c r="E557" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="558" spans="1:5">
+      <c r="F557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -15482,7 +16159,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -15499,7 +16176,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -15515,8 +16192,11 @@
       <c r="E560" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="561" spans="1:5">
+      <c r="F560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -15532,8 +16212,11 @@
       <c r="E561" t="s">
         <v>1804</v>
       </c>
-    </row>
-    <row r="562" spans="1:5">
+      <c r="F561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -15550,7 +16233,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -15566,8 +16249,11 @@
       <c r="E563" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="564" spans="1:5">
+      <c r="F563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -15584,7 +16270,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -15601,7 +16287,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -15618,7 +16304,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -15635,7 +16321,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -15651,8 +16337,11 @@
       <c r="E568" t="s">
         <v>1811</v>
       </c>
-    </row>
-    <row r="569" spans="1:5">
+      <c r="F568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -15668,8 +16357,11 @@
       <c r="E569" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="570" spans="1:5">
+      <c r="F569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -15686,7 +16378,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -15702,8 +16394,11 @@
       <c r="E571" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="572" spans="1:5">
+      <c r="F571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -15719,8 +16414,11 @@
       <c r="E572" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="573" spans="1:5">
+      <c r="F572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -15737,7 +16435,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -15754,7 +16452,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -15771,7 +16469,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -15788,7 +16486,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -15804,8 +16502,11 @@
       <c r="E577" t="s">
         <v>1820</v>
       </c>
-    </row>
-    <row r="578" spans="1:5">
+      <c r="F577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -15822,7 +16523,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -15839,7 +16540,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -15856,7 +16557,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -15872,8 +16573,11 @@
       <c r="E581" t="s">
         <v>1824</v>
       </c>
-    </row>
-    <row r="582" spans="1:5">
+      <c r="F581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -15890,7 +16594,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -15906,8 +16610,11 @@
       <c r="E583" t="s">
         <v>1826</v>
       </c>
-    </row>
-    <row r="584" spans="1:5">
+      <c r="F583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -15923,8 +16630,11 @@
       <c r="E584" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="585" spans="1:5">
+      <c r="F584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -15940,8 +16650,11 @@
       <c r="E585" t="s">
         <v>1828</v>
       </c>
-    </row>
-    <row r="586" spans="1:5">
+      <c r="F585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -15957,8 +16670,11 @@
       <c r="E586" t="s">
         <v>1829</v>
       </c>
-    </row>
-    <row r="587" spans="1:5">
+      <c r="F586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -15974,8 +16690,11 @@
       <c r="E587" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="588" spans="1:5">
+      <c r="F587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -15992,7 +16711,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -16008,8 +16727,11 @@
       <c r="E589" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="590" spans="1:5">
+      <c r="F589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -16025,8 +16747,11 @@
       <c r="E590" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="591" spans="1:5">
+      <c r="F590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -16042,8 +16767,11 @@
       <c r="E591" t="s">
         <v>1834</v>
       </c>
-    </row>
-    <row r="592" spans="1:5">
+      <c r="F591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -16060,7 +16788,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -16077,7 +16805,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -16094,7 +16822,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -16110,8 +16838,11 @@
       <c r="E595" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="596" spans="1:5">
+      <c r="F595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -16128,7 +16859,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -16144,8 +16875,11 @@
       <c r="E597" t="s">
         <v>1840</v>
       </c>
-    </row>
-    <row r="598" spans="1:5">
+      <c r="F597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -16161,8 +16895,11 @@
       <c r="E598" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="599" spans="1:5">
+      <c r="F598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -16179,7 +16916,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -16196,7 +16933,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -16213,7 +16950,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -16229,8 +16966,11 @@
       <c r="E602" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="603" spans="1:5">
+      <c r="F602">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -16247,7 +16987,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -16264,7 +17004,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -16281,7 +17021,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -16298,7 +17038,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -16315,7 +17055,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -16332,7 +17072,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -16349,7 +17089,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -16366,7 +17106,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -16383,7 +17123,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -16400,7 +17140,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -16417,7 +17157,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -16434,7 +17174,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -16451,7 +17191,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -16467,8 +17207,11 @@
       <c r="E616" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="617" spans="1:5">
+      <c r="F616">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -16484,8 +17227,11 @@
       <c r="E617" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="618" spans="1:5">
+      <c r="F617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -16501,8 +17247,11 @@
       <c r="E618" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="619" spans="1:5">
+      <c r="F618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -16518,8 +17267,11 @@
       <c r="E619" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="620" spans="1:5">
+      <c r="F619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -16535,8 +17287,11 @@
       <c r="E620" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="621" spans="1:5">
+      <c r="F620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -16553,7 +17308,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -16569,8 +17324,11 @@
       <c r="E622" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="623" spans="1:5">
+      <c r="F622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -16586,8 +17344,11 @@
       <c r="E623" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="624" spans="1:5">
+      <c r="F623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -16603,8 +17364,11 @@
       <c r="E624" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="625" spans="1:5">
+      <c r="F624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -16621,7 +17385,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -16638,7 +17402,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -16656,6 +17420,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
